--- a/biology/Zoologie/Chilabothrus_angulifer/Chilabothrus_angulifer.xlsx
+++ b/biology/Zoologie/Chilabothrus_angulifer/Chilabothrus_angulifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilabothrus angulifer est une espèce de serpents de la famille des Boidae[1]. En français, il est nommé Boa arc-en-ciel cubain ou Boa de Cuba ou Boa cubain. Il vit dans des grottes ou des abris parmi les trous des rochers.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilabothrus angulifer est une espèce de serpents de la famille des Boidae. En français, il est nommé Boa arc-en-ciel cubain ou Boa de Cuba ou Boa cubain. Il vit dans des grottes ou des abris parmi les trous des rochers.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce habite les forêts sèches de Cuba.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilabothrus angulifer mesure jusqu'à quatre mètres de long. Un poids d'environ 27 kg.
 </t>
@@ -604,7 +622,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit principalement voire exclusivement de rongeurs.
 </t>
@@ -637,10 +657,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statut
-Comme grand nombre de serpents endémique à une île, ce boa est menacé par la déforestation, les feux et cyclones. Chilabothrus angulifer, à cause de sa réputation de mangeur de poules est souvent tué à proximité des villages où il chasse les rats[2].
-Conservation
-Depuis 1993 la Ménagerie du jardin des plantes de Paris/France participe au Programme européen pour les espèces menacées EEP [2].
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme grand nombre de serpents endémique à une île, ce boa est menacé par la déforestation, les feux et cyclones. Chilabothrus angulifer, à cause de sa réputation de mangeur de poules est souvent tué à proximité des villages où il chasse les rats.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chilabothrus_angulifer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chilabothrus_angulifer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Statut, conservation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1993 la Ménagerie du jardin des plantes de Paris/France participe au Programme européen pour les espèces menacées EEP .
 </t>
         </is>
       </c>
